--- a/doc/配套文件/RptTmpEng.xlsx
+++ b/doc/配套文件/RptTmpEng.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shenggen\torque\Drill\doc\配套文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CurWork\gitlib\Drill\Torque\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E04B86-74A7-4044-8EB3-C3137197A1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609ECC73-AE26-4011-9973-C149D2A4509B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34215" yWindow="3795" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="570" windowWidth="14400" windowHeight="12255" tabRatio="648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="7" r:id="rId1"/>
@@ -249,18 +249,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tubing OEM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Company</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>SizeThread</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Makeup</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -365,30 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3 TubingOEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 SizeThread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 OperType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 Company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 Elevator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 HYDTong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TRSSpv.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,6 +391,38 @@
   </si>
   <si>
     <t>MaxS.Tq</t>
+  </si>
+  <si>
+    <t>1 DPMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 DPSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 DPLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 OilField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 ExplCorp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 DPTong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPMaterial</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPSize</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -430,15 +430,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="165" formatCode="0.000_ "/>
-    <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -457,14 +457,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -982,7 +982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -993,7 +993,7 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1008,16 +1008,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1187,10 +1187,10 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1217,7 +1217,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1229,13 +1229,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1290,12 +1290,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1359,7 +1356,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1368,7 +1365,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="37" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1377,9 +1374,15 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1411,7 +1414,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1475,7 +1478,7 @@
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1575,7 +1578,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1747,7 +1750,7 @@
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -2234,31 +2237,31 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="9" style="16"/>
-    <col min="4" max="4" width="9.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="16" customWidth="1"/>
     <col min="5" max="5" width="9" style="16"/>
     <col min="6" max="6" width="3" style="16" customWidth="1"/>
     <col min="7" max="8" width="9" style="16"/>
-    <col min="9" max="9" width="15.5703125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" style="16" customWidth="1"/>
     <col min="10" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5">
+    <row r="1" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="19"/>
     </row>
-    <row r="2" spans="1:10" ht="31.5">
+    <row r="2" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:10" ht="31.5">
+    <row r="3" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
     </row>
-    <row r="4" spans="1:10" ht="33.75">
-      <c r="A4" s="108"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
+    <row r="4" spans="1:10" ht="33.5" x14ac:dyDescent="0.75">
+      <c r="A4" s="107"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
       <c r="E4" s="103" t="s">
         <v>5</v>
       </c>
@@ -2268,25 +2271,25 @@
       <c r="I4" s="103"/>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
     </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
     </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
     </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22"/>
     </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
     </row>
-    <row r="11" spans="1:10" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="11" spans="1:10" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="23"/>
       <c r="D11" s="14" t="s">
         <v>6</v>
@@ -2296,7 +2299,7 @@
       <c r="G11" s="105"/>
       <c r="H11" s="105"/>
     </row>
-    <row r="12" spans="1:10" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="1:10" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="23"/>
       <c r="D12" s="14" t="s">
         <v>7</v>
@@ -2306,69 +2309,69 @@
       <c r="G12" s="106"/>
       <c r="H12" s="106"/>
     </row>
-    <row r="13" spans="1:10" s="15" customFormat="1" ht="21">
+    <row r="13" spans="1:10" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A13" s="23"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:10" s="15" customFormat="1" ht="21">
+    <row r="14" spans="1:10" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A14" s="23"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:10" ht="21">
+    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="23"/>
     </row>
-    <row r="16" spans="1:10" s="15" customFormat="1" ht="21.75" thickBot="1">
+    <row r="16" spans="1:10" s="15" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="23"/>
       <c r="D16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-    </row>
-    <row r="17" spans="1:9" s="15" customFormat="1" ht="21.75" thickBot="1">
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+    </row>
+    <row r="17" spans="1:9" s="15" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="23"/>
       <c r="D17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-    </row>
-    <row r="18" spans="1:9" s="15" customFormat="1" ht="21.75" thickBot="1">
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+    </row>
+    <row r="18" spans="1:9" s="15" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="23"/>
       <c r="D18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-    </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23"/>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24"/>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24"/>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="24"/>
     </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24"/>
     </row>
-    <row r="24" spans="1:9" ht="30" customHeight="1">
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B24" s="104"/>
       <c r="C24" s="104"/>
@@ -2379,7 +2382,7 @@
       <c r="H24" s="104"/>
       <c r="I24" s="104"/>
     </row>
-    <row r="25" spans="1:9" ht="28.5">
+    <row r="25" spans="1:9" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A25" s="25"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -2390,10 +2393,10 @@
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27"/>
     </row>
-    <row r="27" spans="1:9" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:9" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C27" s="29" t="s">
         <v>11</v>
       </c>
@@ -2430,32 +2433,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="1.42578125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="1.42578125" style="30" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="32" customWidth="1"/>
-    <col min="9" max="9" width="1.42578125" style="30" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="32" customWidth="1"/>
-    <col min="11" max="11" width="2.28515625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="2.58203125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="20.58203125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="1.4140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="30" customWidth="1"/>
+    <col min="6" max="6" width="20.58203125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="1.4140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="15.58203125" style="32" customWidth="1"/>
+    <col min="9" max="9" width="1.4140625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="13.4140625" style="32" customWidth="1"/>
+    <col min="11" max="11" width="2.25" style="30" customWidth="1"/>
     <col min="12" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="31"/>
       <c r="F1" s="31"/>
     </row>
-    <row r="2" spans="1:10" s="36" customFormat="1" ht="44.1" customHeight="1">
+    <row r="2" spans="1:10" s="36" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="33"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
       <c r="F2" s="34" t="s">
         <v>13</v>
       </c>
@@ -2464,19 +2467,19 @@
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
     </row>
-    <row r="3" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A3" s="109"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
+    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
     </row>
-    <row r="4" spans="1:10" ht="12.95" customHeight="1">
+    <row r="4" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
         <v>15</v>
       </c>
@@ -2487,11 +2490,11 @@
       </c>
       <c r="H4" s="94"/>
     </row>
-    <row r="5" spans="1:10" ht="12.95" customHeight="1">
+    <row r="5" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="92"/>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="1:10" ht="12.95" customHeight="1">
+    <row r="6" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
         <v>16</v>
       </c>
@@ -2499,9 +2502,9 @@
       <c r="D6" s="92"/>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="1:10" ht="12.95" customHeight="1">
+    <row r="7" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="38" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D7" s="91"/>
       <c r="F7" s="38" t="s">
@@ -2509,27 +2512,25 @@
       </c>
       <c r="H7" s="95"/>
     </row>
-    <row r="8" spans="1:10" ht="12.95" customHeight="1">
-      <c r="D8" s="92"/>
+    <row r="8" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="91"/>
       <c r="H8" s="92"/>
     </row>
-    <row r="9" spans="1:10" ht="12.95" customHeight="1">
-      <c r="B9" s="38" t="s">
-        <v>87</v>
-      </c>
+    <row r="9" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="38"/>
       <c r="D9" s="91"/>
       <c r="F9" s="38" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="95"/>
     </row>
-    <row r="10" spans="1:10" ht="12.95" customHeight="1">
+    <row r="10" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="92"/>
       <c r="H10" s="92"/>
     </row>
-    <row r="11" spans="1:10" ht="12.95" customHeight="1">
+    <row r="11" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="38" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D11" s="91"/>
       <c r="F11" s="38" t="s">
@@ -2537,11 +2538,11 @@
       </c>
       <c r="H11" s="95"/>
     </row>
-    <row r="12" spans="1:10" ht="12.95" customHeight="1">
+    <row r="12" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="91"/>
       <c r="H12" s="92"/>
     </row>
-    <row r="13" spans="1:10" ht="12.95" customHeight="1">
+    <row r="13" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="32"/>
       <c r="D13" s="91"/>
       <c r="F13" s="38" t="s">
@@ -2549,63 +2550,65 @@
       </c>
       <c r="H13" s="95"/>
     </row>
-    <row r="14" spans="1:10" ht="12.95" customHeight="1">
-      <c r="D14" s="93"/>
+    <row r="14" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="91"/>
       <c r="H14" s="92"/>
     </row>
-    <row r="15" spans="1:10" ht="12.95" customHeight="1">
-      <c r="B15" s="38" t="s">
-        <v>85</v>
-      </c>
+    <row r="15" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="38"/>
       <c r="D15" s="91"/>
       <c r="F15" s="38" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="95"/>
     </row>
-    <row r="16" spans="1:10" ht="12.95" customHeight="1">
-      <c r="D16" s="91"/>
+    <row r="16" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="92"/>
       <c r="H16" s="92"/>
     </row>
-    <row r="17" spans="2:8" ht="12.95" customHeight="1">
-      <c r="B17" s="32"/>
+    <row r="17" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="38" t="s">
+        <v>95</v>
+      </c>
       <c r="D17" s="91"/>
       <c r="F17" s="38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H17" s="95"/>
     </row>
-    <row r="18" spans="2:8" ht="12.95" customHeight="1">
+    <row r="18" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="91"/>
       <c r="H18" s="92"/>
     </row>
-    <row r="19" spans="2:8" ht="12.95" customHeight="1">
+    <row r="19" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="32"/>
       <c r="D19" s="91"/>
       <c r="F19" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H19" s="95"/>
     </row>
-    <row r="20" spans="2:8" ht="12.95" customHeight="1">
-      <c r="D20" s="91"/>
+    <row r="20" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="92"/>
       <c r="H20" s="92"/>
     </row>
-    <row r="21" spans="2:8" ht="12.95" customHeight="1">
-      <c r="B21" s="32"/>
+    <row r="21" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="38" t="s">
+        <v>96</v>
+      </c>
       <c r="D21" s="91"/>
       <c r="F21" s="38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H21" s="95"/>
     </row>
-    <row r="22" spans="2:8" ht="12.95" customHeight="1">
+    <row r="22" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="93"/>
       <c r="H22" s="92"/>
     </row>
-    <row r="23" spans="2:8" ht="12.95" customHeight="1">
+    <row r="23" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="38" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D23" s="91"/>
       <c r="F23" s="38" t="s">
@@ -2613,13 +2616,13 @@
       </c>
       <c r="H23" s="95"/>
     </row>
-    <row r="24" spans="2:8" ht="12.95" customHeight="1">
+    <row r="24" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="92"/>
       <c r="H24" s="92"/>
     </row>
-    <row r="25" spans="2:8" ht="12.95" customHeight="1">
+    <row r="25" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="38" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D25" s="91"/>
       <c r="F25" s="38" t="s">
@@ -2627,45 +2630,45 @@
       </c>
       <c r="H25" s="95"/>
     </row>
-    <row r="26" spans="2:8" ht="12.95" customHeight="1">
+    <row r="26" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="93"/>
       <c r="H26" s="93"/>
     </row>
-    <row r="27" spans="2:8" ht="12.95" customHeight="1">
+    <row r="27" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="92"/>
       <c r="H27" s="92"/>
     </row>
-    <row r="28" spans="2:8" ht="12.95" customHeight="1">
+    <row r="28" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="92"/>
       <c r="H28" s="92"/>
     </row>
-    <row r="29" spans="2:8" ht="12.95" customHeight="1">
+    <row r="29" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="38" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D29" s="91"/>
       <c r="H29" s="92"/>
     </row>
-    <row r="30" spans="2:8" ht="12.95" customHeight="1">
+    <row r="30" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="91"/>
       <c r="H30" s="92"/>
     </row>
-    <row r="31" spans="2:8" ht="12.95" customHeight="1">
+    <row r="31" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="91"/>
       <c r="H31" s="92"/>
     </row>
-    <row r="32" spans="2:8" ht="12.95" customHeight="1">
+    <row r="32" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="91"/>
       <c r="H32" s="92"/>
     </row>
-    <row r="33" spans="2:8" ht="12.95" customHeight="1">
+    <row r="33" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="91"/>
       <c r="H33" s="92"/>
     </row>
-    <row r="34" spans="2:8" ht="12.95" customHeight="1">
+    <row r="34" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="40" t="s">
         <v>25</v>
       </c>
@@ -2674,11 +2677,11 @@
       <c r="G34" s="39"/>
       <c r="H34" s="92"/>
     </row>
-    <row r="35" spans="2:8" ht="12.95" customHeight="1">
+    <row r="35" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="92"/>
       <c r="H35" s="92"/>
     </row>
-    <row r="36" spans="2:8" ht="12.95" customHeight="1">
+    <row r="36" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="38" t="s">
         <v>31</v>
       </c>
@@ -2693,11 +2696,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="12.95" customHeight="1">
+    <row r="37" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="92"/>
       <c r="H37" s="92"/>
     </row>
-    <row r="38" spans="2:8" ht="12.95" customHeight="1">
+    <row r="38" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="38" t="s">
         <v>30</v>
       </c>
@@ -2711,11 +2714,11 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="12.95" customHeight="1">
+    <row r="39" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="92"/>
       <c r="H39" s="92"/>
     </row>
-    <row r="40" spans="2:8" ht="12.95" customHeight="1">
+    <row r="40" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="38" t="s">
         <v>32</v>
       </c>
@@ -2729,11 +2732,11 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="12.95" customHeight="1">
+    <row r="41" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="92"/>
       <c r="H41" s="92"/>
     </row>
-    <row r="42" spans="2:8" ht="12.95" customHeight="1">
+    <row r="42" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="38" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2750,79 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="12.95" customHeight="1"/>
-    <row r="44" spans="2:8" ht="12.95" customHeight="1">
+    <row r="43" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="111" t="s">
+      <c r="D44" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="113"/>
-    </row>
-    <row r="45" spans="2:8" ht="12.95" customHeight="1"/>
-    <row r="46" spans="2:8" ht="12.95" customHeight="1">
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="112"/>
+    </row>
+    <row r="45" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="40" t="s">
         <v>26</v>
       </c>
       <c r="F46" s="39"/>
     </row>
-    <row r="47" spans="2:8" ht="12.95" customHeight="1">
-      <c r="B47" s="114"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="116"/>
-    </row>
-    <row r="48" spans="2:8" ht="12.95" customHeight="1">
-      <c r="B48" s="117"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="118"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="119"/>
-    </row>
-    <row r="49" spans="2:8" ht="12.95" customHeight="1">
-      <c r="B49" s="117"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="118"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="118"/>
-      <c r="H49" s="119"/>
-    </row>
-    <row r="50" spans="2:8" ht="12.95" customHeight="1">
-      <c r="B50" s="117"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="118"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="119"/>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="117"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="118"/>
-      <c r="F51" s="118"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="119"/>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="120"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="121"/>
-      <c r="F52" s="121"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="122"/>
+    <row r="47" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="115"/>
+    </row>
+    <row r="48" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="116"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="118"/>
+    </row>
+    <row r="49" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="116"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="118"/>
+    </row>
+    <row r="50" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="116"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="118"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="116"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="118"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="119"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2845,218 +2848,218 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="42" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="42" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="43" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="24.4140625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="18.58203125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="18.58203125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="42" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="42" customWidth="1"/>
+    <col min="6" max="6" width="11.58203125" style="43" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="42" customWidth="1"/>
     <col min="8" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" hidden="1"/>
-    <row r="2" spans="1:6" ht="30" customHeight="1">
-      <c r="A2" s="124" t="s">
+    <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
       <c r="F2" s="44"/>
     </row>
-    <row r="3" spans="1:6" s="80" customFormat="1" ht="12.95" customHeight="1">
+    <row r="3" spans="1:6" s="80" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="81"/>
       <c r="F3" s="81"/>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="64"/>
-      <c r="B4" s="126" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="126"/>
+      <c r="B4" s="125" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="125"/>
       <c r="D4" s="64"/>
       <c r="E4" s="64"/>
       <c r="F4" s="45"/>
     </row>
-    <row r="5" spans="1:6" ht="12.95" customHeight="1">
+    <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="46" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="90"/>
     </row>
-    <row r="6" spans="1:6" ht="12.95" customHeight="1">
+    <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="47" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C6" s="90"/>
     </row>
-    <row r="7" spans="1:6" ht="12.95" customHeight="1">
+    <row r="7" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="48" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C7" s="90"/>
     </row>
-    <row r="8" spans="1:6" ht="12.95" customHeight="1"/>
-    <row r="9" spans="1:6" ht="12.95" customHeight="1"/>
-    <row r="10" spans="1:6" ht="12.95" customHeight="1"/>
-    <row r="11" spans="1:6" ht="12.95" customHeight="1">
+    <row r="8" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="49"/>
     </row>
-    <row r="12" spans="1:6" ht="12.95" customHeight="1"/>
-    <row r="13" spans="1:6" ht="12.95" customHeight="1"/>
-    <row r="14" spans="1:6" ht="12.95" customHeight="1"/>
-    <row r="15" spans="1:6" ht="12.95" customHeight="1"/>
-    <row r="16" spans="1:6" ht="12.95" customHeight="1"/>
-    <row r="17" spans="1:6" ht="12.95" customHeight="1"/>
-    <row r="18" spans="1:6" ht="12.95" customHeight="1"/>
-    <row r="19" spans="1:6" ht="12.95" customHeight="1">
+    <row r="12" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="49"/>
     </row>
-    <row r="20" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:6" s="50" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="64"/>
-      <c r="B20" s="125" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="125"/>
+      <c r="B20" s="124" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="124"/>
       <c r="D20" s="64"/>
       <c r="F20" s="51"/>
     </row>
-    <row r="21" spans="1:6" ht="12.95" customHeight="1">
+    <row r="21" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="52" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="90"/>
     </row>
-    <row r="22" spans="1:6" ht="12.95" customHeight="1">
+    <row r="22" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="53" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="90"/>
     </row>
-    <row r="23" spans="1:6" ht="12.95" customHeight="1">
+    <row r="23" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="54" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="90"/>
     </row>
-    <row r="24" spans="1:6" ht="12.95" customHeight="1">
+    <row r="24" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="55" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="90"/>
     </row>
-    <row r="25" spans="1:6" ht="12.95" customHeight="1">
+    <row r="25" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="56" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="90"/>
       <c r="F25" s="42"/>
     </row>
-    <row r="26" spans="1:6" ht="12.95" customHeight="1">
+    <row r="26" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="57" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="90"/>
     </row>
-    <row r="27" spans="1:6" ht="12.95" customHeight="1">
+    <row r="27" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="58" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="90"/>
     </row>
-    <row r="28" spans="1:6" ht="12.95" customHeight="1">
+    <row r="28" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="59" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="90"/>
     </row>
-    <row r="29" spans="1:6" ht="12.95" customHeight="1">
+    <row r="29" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="60" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="90"/>
     </row>
-    <row r="30" spans="1:6" ht="12.95" customHeight="1">
+    <row r="30" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="55" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="90"/>
     </row>
-    <row r="31" spans="1:6" ht="12.95" customHeight="1">
+    <row r="31" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="56" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="90"/>
     </row>
-    <row r="32" spans="1:6" ht="12.95" customHeight="1">
+    <row r="32" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="90"/>
+    </row>
+    <row r="33" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="90"/>
+    </row>
+    <row r="34" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="90"/>
-    </row>
-    <row r="33" spans="2:8" ht="12.95" customHeight="1">
-      <c r="B33" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="90"/>
-    </row>
-    <row r="34" spans="2:8" ht="12.95" customHeight="1">
-      <c r="B34" s="98" t="s">
-        <v>91</v>
-      </c>
       <c r="C34" s="90"/>
     </row>
-    <row r="35" spans="2:8" ht="12.95" customHeight="1"/>
-    <row r="36" spans="2:8" ht="12.95" customHeight="1">
+    <row r="35" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="42"/>
     </row>
-    <row r="37" spans="2:8" ht="12.95" customHeight="1"/>
-    <row r="38" spans="2:8" ht="12.95" customHeight="1"/>
-    <row r="39" spans="2:8" ht="12.95" customHeight="1">
+    <row r="37" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="42"/>
       <c r="F39" s="42"/>
     </row>
-    <row r="40" spans="2:8" ht="12.95" customHeight="1">
+    <row r="40" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="42"/>
       <c r="F40" s="42"/>
     </row>
-    <row r="41" spans="2:8" ht="12.95" customHeight="1">
+    <row r="41" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="42"/>
       <c r="F41" s="42"/>
     </row>
-    <row r="42" spans="2:8" ht="12.95" customHeight="1">
+    <row r="42" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="42"/>
       <c r="F42" s="42"/>
     </row>
-    <row r="43" spans="2:8" ht="12.95" customHeight="1">
+    <row r="43" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="42"/>
       <c r="F43" s="42"/>
     </row>
-    <row r="44" spans="2:8" ht="12.95" customHeight="1">
+    <row r="44" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D44" s="49"/>
       <c r="H44" s="49"/>
     </row>
-    <row r="45" spans="2:8" ht="12.95" customHeight="1"/>
-    <row r="46" spans="2:8" ht="12.95" customHeight="1">
+    <row r="45" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="49"/>
       <c r="H46" s="49"/>
     </row>
-    <row r="47" spans="2:8" ht="12.95" customHeight="1"/>
-    <row r="48" spans="2:8" ht="12.95" customHeight="1">
+    <row r="47" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="49"/>
       <c r="H48" s="49"/>
     </row>
-    <row r="49" spans="1:8" ht="12.95" customHeight="1"/>
-    <row r="50" spans="1:8" ht="12.95" customHeight="1">
+    <row r="49" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50" s="49"/>
       <c r="H50" s="49"/>
     </row>
-    <row r="51" spans="1:8" ht="12.95" customHeight="1"/>
-    <row r="52" spans="1:8" ht="12.95" customHeight="1">
+    <row r="51" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="62" t="s">
         <v>49</v>
       </c>
@@ -3064,27 +3067,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="12.95" customHeight="1">
+    <row r="53" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="63" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="90"/>
       <c r="C53" s="90"/>
     </row>
-    <row r="54" spans="1:8" ht="12.95" customHeight="1">
+    <row r="54" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="43"/>
       <c r="C54" s="43"/>
     </row>
-    <row r="55" spans="1:8" ht="12.95" customHeight="1">
+    <row r="55" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="43"/>
       <c r="C55" s="43"/>
     </row>
-    <row r="56" spans="1:8" ht="12.95" customHeight="1"/>
-    <row r="57" spans="1:8" ht="12.95" customHeight="1"/>
-    <row r="58" spans="1:8" ht="12.95" customHeight="1"/>
-    <row r="59" spans="1:8" ht="12.95" customHeight="1"/>
-    <row r="60" spans="1:8" ht="12.95" customHeight="1"/>
-    <row r="61" spans="1:8" ht="12.95" customHeight="1"/>
+    <row r="56" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:E2"/>
@@ -3107,108 +3110,108 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="42" customWidth="1"/>
-    <col min="2" max="3" width="18.5703125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="42" customWidth="1"/>
+    <col min="1" max="1" width="2.58203125" style="42" customWidth="1"/>
+    <col min="2" max="3" width="18.58203125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="42" customWidth="1"/>
     <col min="5" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="50" customFormat="1" ht="30" customHeight="1">
-      <c r="B1" s="124" t="s">
+    <row r="1" spans="1:8" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B1" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
       <c r="H1" s="65"/>
     </row>
-    <row r="2" spans="1:8" s="80" customFormat="1" ht="12.95" customHeight="1">
+    <row r="2" spans="1:8" s="80" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="81"/>
       <c r="F2" s="81"/>
     </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="126" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-    </row>
-    <row r="4" spans="1:8" ht="26.25" customHeight="1">
+      <c r="B3" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+    </row>
+    <row r="4" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="43"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75">
+    <row r="5" spans="1:8" ht="18.5" x14ac:dyDescent="0.3">
       <c r="A5" s="66"/>
       <c r="B5" s="66"/>
       <c r="C5" s="66"/>
       <c r="D5" s="66"/>
       <c r="E5" s="66"/>
     </row>
-    <row r="6" spans="1:8" ht="34.5" customHeight="1">
+    <row r="6" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="66"/>
       <c r="B6" s="66"/>
       <c r="C6" s="66"/>
       <c r="D6" s="66"/>
       <c r="E6" s="66"/>
     </row>
-    <row r="7" spans="1:8" ht="7.5" customHeight="1">
+    <row r="7" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="43"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="43"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="43"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="43"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="43"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="43"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="43"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="43"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="43"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="43"/>
       <c r="D16" s="49"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" s="43"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="43"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="43"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="43"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" s="43"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" s="62" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="63" t="s">
         <v>53</v>
       </c>
@@ -3216,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="63" t="s">
         <v>54</v>
       </c>
@@ -3224,33 +3227,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="66"/>
-      <c r="B26" s="126" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-    </row>
-    <row r="39" spans="4:8">
+      <c r="B26" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D39" s="49"/>
       <c r="H39" s="49"/>
     </row>
-    <row r="41" spans="4:8">
+    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D41" s="49"/>
       <c r="H41" s="49"/>
     </row>
-    <row r="43" spans="4:8">
+    <row r="43" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D43" s="49"/>
       <c r="H43" s="49"/>
     </row>
-    <row r="45" spans="4:8">
+    <row r="45" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D45" s="49"/>
       <c r="H45" s="49"/>
     </row>
-    <row r="47" spans="4:8">
+    <row r="47" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D47" s="49"/>
       <c r="E47" s="49"/>
       <c r="F47" s="49"/>
@@ -3278,34 +3281,34 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="5.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="2" customWidth="1"/>
-    <col min="12" max="13" width="10.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="0.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.58203125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="5.58203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.58203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.58203125" style="2" customWidth="1"/>
+    <col min="12" max="13" width="10.1640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="0.25" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" hidden="1"/>
-    <row r="2" spans="1:15" s="69" customFormat="1" ht="24.95" customHeight="1">
+    <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:15" s="69" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="84"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
       <c r="H2" s="89" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I2" s="86"/>
       <c r="J2" s="85"/>
@@ -3314,7 +3317,7 @@
       <c r="M2" s="89"/>
       <c r="N2" s="87"/>
     </row>
-    <row r="3" spans="1:15" ht="8.1" customHeight="1">
+    <row r="3" spans="1:15" ht="8.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="70"/>
       <c r="B3" s="70"/>
       <c r="C3" s="71"/>
@@ -3329,2662 +3332,2662 @@
       <c r="L3" s="74"/>
       <c r="M3" s="74"/>
     </row>
-    <row r="4" spans="1:15" s="75" customFormat="1" ht="14.25">
+    <row r="4" spans="1:15" s="75" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="130" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="128" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
+      <c r="B4" s="129" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
       <c r="N4" s="88"/>
     </row>
-    <row r="5" spans="1:15" s="75" customFormat="1" ht="14.25">
+    <row r="5" spans="1:15" s="75" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
-      <c r="B5" s="130" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="128" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
+      <c r="B5" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
       <c r="N5" s="88"/>
     </row>
-    <row r="6" spans="1:15" s="77" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:15" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="76"/>
-      <c r="B6" s="129"/>
+      <c r="B6" s="128"/>
       <c r="C6" s="78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="131" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="132"/>
-      <c r="G6" s="133" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="132"/>
+        <v>73</v>
+      </c>
+      <c r="E6" s="130" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="131"/>
+      <c r="G6" s="132" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="131"/>
       <c r="I6" s="82" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J6" s="78" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K6" s="82" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L6" s="78" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O6" s="75"/>
     </row>
-    <row r="7" spans="1:15" s="8" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:15" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="129"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="131"/>
       <c r="I7" s="11"/>
       <c r="J7" s="12"/>
       <c r="K7" s="11"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:15" s="77" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:15" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="76"/>
       <c r="B8" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="E8" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="F8" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="G8" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="H8" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="78" t="s">
+      <c r="J8" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="K8" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="78" t="s">
+      <c r="M8" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="78" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="J9" s="79"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="4:4">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="4:4">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="4:4">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="4:4">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="4:4">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="6"/>
     </row>
-    <row r="74" spans="4:4">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="6"/>
     </row>
-    <row r="75" spans="4:4">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="4:4">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="6"/>
     </row>
-    <row r="77" spans="4:4">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="4:4">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="4:4">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="6"/>
     </row>
-    <row r="80" spans="4:4">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="4:4">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="6"/>
     </row>
-    <row r="82" spans="4:4">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="6"/>
     </row>
-    <row r="83" spans="4:4">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="6"/>
     </row>
-    <row r="84" spans="4:4">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="6"/>
     </row>
-    <row r="85" spans="4:4">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="6"/>
     </row>
-    <row r="86" spans="4:4">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="6"/>
     </row>
-    <row r="87" spans="4:4">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="6"/>
     </row>
-    <row r="88" spans="4:4">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="6"/>
     </row>
-    <row r="89" spans="4:4">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="6"/>
     </row>
-    <row r="90" spans="4:4">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="6"/>
     </row>
-    <row r="91" spans="4:4">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="6"/>
     </row>
-    <row r="92" spans="4:4">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="6"/>
     </row>
-    <row r="93" spans="4:4">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="6"/>
     </row>
-    <row r="94" spans="4:4">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="6"/>
     </row>
-    <row r="95" spans="4:4">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="6"/>
     </row>
-    <row r="96" spans="4:4">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="6"/>
     </row>
-    <row r="97" spans="4:4">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="6"/>
     </row>
-    <row r="98" spans="4:4">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="6"/>
     </row>
-    <row r="99" spans="4:4">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="6"/>
     </row>
-    <row r="100" spans="4:4">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="6"/>
     </row>
-    <row r="101" spans="4:4">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" s="6"/>
     </row>
-    <row r="102" spans="4:4">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" s="6"/>
     </row>
-    <row r="103" spans="4:4">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" s="6"/>
     </row>
-    <row r="104" spans="4:4">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" s="6"/>
     </row>
-    <row r="105" spans="4:4">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="4:4">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" s="6"/>
     </row>
-    <row r="107" spans="4:4">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" s="6"/>
     </row>
-    <row r="108" spans="4:4">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="6"/>
     </row>
-    <row r="109" spans="4:4">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" s="6"/>
     </row>
-    <row r="110" spans="4:4">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="4:4">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" s="6"/>
     </row>
-    <row r="112" spans="4:4">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="4:4">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="6"/>
     </row>
-    <row r="114" spans="4:4">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="6"/>
     </row>
-    <row r="115" spans="4:4">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="6"/>
     </row>
-    <row r="116" spans="4:4">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="6"/>
     </row>
-    <row r="117" spans="4:4">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="6"/>
     </row>
-    <row r="118" spans="4:4">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="6"/>
     </row>
-    <row r="119" spans="4:4">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="6"/>
     </row>
-    <row r="120" spans="4:4">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="6"/>
     </row>
-    <row r="121" spans="4:4">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="6"/>
     </row>
-    <row r="122" spans="4:4">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="4:4">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="4:4">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="6"/>
     </row>
-    <row r="125" spans="4:4">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="4:4">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D126" s="6"/>
     </row>
-    <row r="127" spans="4:4">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D127" s="6"/>
     </row>
-    <row r="128" spans="4:4">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D128" s="6"/>
     </row>
-    <row r="129" spans="4:4">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D129" s="6"/>
     </row>
-    <row r="130" spans="4:4">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D130" s="6"/>
     </row>
-    <row r="131" spans="4:4">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D131" s="6"/>
     </row>
-    <row r="132" spans="4:4">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D132" s="6"/>
     </row>
-    <row r="133" spans="4:4">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D133" s="6"/>
     </row>
-    <row r="134" spans="4:4">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D134" s="6"/>
     </row>
-    <row r="135" spans="4:4">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135" s="6"/>
     </row>
-    <row r="136" spans="4:4">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D136" s="6"/>
     </row>
-    <row r="137" spans="4:4">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D137" s="6"/>
     </row>
-    <row r="138" spans="4:4">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D138" s="6"/>
     </row>
-    <row r="139" spans="4:4">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D139" s="6"/>
     </row>
-    <row r="140" spans="4:4">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D140" s="6"/>
     </row>
-    <row r="141" spans="4:4">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D141" s="6"/>
     </row>
-    <row r="142" spans="4:4">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D142" s="6"/>
     </row>
-    <row r="143" spans="4:4">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D143" s="6"/>
     </row>
-    <row r="144" spans="4:4">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D144" s="6"/>
     </row>
-    <row r="145" spans="4:4">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D145" s="6"/>
     </row>
-    <row r="146" spans="4:4">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D146" s="6"/>
     </row>
-    <row r="147" spans="4:4">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D147" s="6"/>
     </row>
-    <row r="148" spans="4:4">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D148" s="6"/>
     </row>
-    <row r="149" spans="4:4">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D149" s="6"/>
     </row>
-    <row r="150" spans="4:4">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D150" s="6"/>
     </row>
-    <row r="151" spans="4:4">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D151" s="6"/>
     </row>
-    <row r="152" spans="4:4">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D152" s="6"/>
     </row>
-    <row r="153" spans="4:4">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D153" s="6"/>
     </row>
-    <row r="154" spans="4:4">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D154" s="6"/>
     </row>
-    <row r="155" spans="4:4">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D155" s="6"/>
     </row>
-    <row r="156" spans="4:4">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D156" s="6"/>
     </row>
-    <row r="157" spans="4:4">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D157" s="6"/>
     </row>
-    <row r="158" spans="4:4">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D158" s="6"/>
     </row>
-    <row r="159" spans="4:4">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D159" s="6"/>
     </row>
-    <row r="160" spans="4:4">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D160" s="6"/>
     </row>
-    <row r="161" spans="4:4">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D161" s="6"/>
     </row>
-    <row r="162" spans="4:4">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D162" s="6"/>
     </row>
-    <row r="163" spans="4:4">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D163" s="6"/>
     </row>
-    <row r="164" spans="4:4">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D164" s="6"/>
     </row>
-    <row r="165" spans="4:4">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D165" s="6"/>
     </row>
-    <row r="166" spans="4:4">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D166" s="6"/>
     </row>
-    <row r="167" spans="4:4">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D167" s="6"/>
     </row>
-    <row r="168" spans="4:4">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D168" s="6"/>
     </row>
-    <row r="169" spans="4:4">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D169" s="6"/>
     </row>
-    <row r="170" spans="4:4">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D170" s="6"/>
     </row>
-    <row r="171" spans="4:4">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D171" s="6"/>
     </row>
-    <row r="172" spans="4:4">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D172" s="6"/>
     </row>
-    <row r="173" spans="4:4">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D173" s="6"/>
     </row>
-    <row r="174" spans="4:4">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D174" s="6"/>
     </row>
-    <row r="175" spans="4:4">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D175" s="6"/>
     </row>
-    <row r="176" spans="4:4">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D176" s="6"/>
     </row>
-    <row r="177" spans="4:4">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D177" s="6"/>
     </row>
-    <row r="178" spans="4:4">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D178" s="6"/>
     </row>
-    <row r="179" spans="4:4">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D179" s="6"/>
     </row>
-    <row r="180" spans="4:4">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D180" s="6"/>
     </row>
-    <row r="181" spans="4:4">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D181" s="6"/>
     </row>
-    <row r="182" spans="4:4">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D182" s="6"/>
     </row>
-    <row r="183" spans="4:4">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D183" s="6"/>
     </row>
-    <row r="184" spans="4:4">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D184" s="6"/>
     </row>
-    <row r="185" spans="4:4">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D185" s="6"/>
     </row>
-    <row r="186" spans="4:4">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D186" s="6"/>
     </row>
-    <row r="187" spans="4:4">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D187" s="6"/>
     </row>
-    <row r="188" spans="4:4">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D188" s="6"/>
     </row>
-    <row r="189" spans="4:4">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D189" s="6"/>
     </row>
-    <row r="190" spans="4:4">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D190" s="6"/>
     </row>
-    <row r="191" spans="4:4">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D191" s="6"/>
     </row>
-    <row r="192" spans="4:4">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D192" s="6"/>
     </row>
-    <row r="193" spans="4:4">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D193" s="6"/>
     </row>
-    <row r="194" spans="4:4">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D194" s="6"/>
     </row>
-    <row r="195" spans="4:4">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D195" s="6"/>
     </row>
-    <row r="196" spans="4:4">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D196" s="6"/>
     </row>
-    <row r="197" spans="4:4">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D197" s="6"/>
     </row>
-    <row r="198" spans="4:4">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D198" s="6"/>
     </row>
-    <row r="199" spans="4:4">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D199" s="6"/>
     </row>
-    <row r="200" spans="4:4">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D200" s="6"/>
     </row>
-    <row r="201" spans="4:4">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D201" s="6"/>
     </row>
-    <row r="202" spans="4:4">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D202" s="6"/>
     </row>
-    <row r="203" spans="4:4">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D203" s="6"/>
     </row>
-    <row r="204" spans="4:4">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D204" s="6"/>
     </row>
-    <row r="205" spans="4:4">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D205" s="6"/>
     </row>
-    <row r="206" spans="4:4">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D206" s="6"/>
     </row>
-    <row r="207" spans="4:4">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D207" s="6"/>
     </row>
-    <row r="208" spans="4:4">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D208" s="6"/>
     </row>
-    <row r="209" spans="4:4">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D209" s="6"/>
     </row>
-    <row r="210" spans="4:4">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D210" s="6"/>
     </row>
-    <row r="211" spans="4:4">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D211" s="6"/>
     </row>
-    <row r="212" spans="4:4">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D212" s="6"/>
     </row>
-    <row r="213" spans="4:4">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D213" s="6"/>
     </row>
-    <row r="214" spans="4:4">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D214" s="6"/>
     </row>
-    <row r="215" spans="4:4">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D215" s="6"/>
     </row>
-    <row r="216" spans="4:4">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D216" s="6"/>
     </row>
-    <row r="217" spans="4:4">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D217" s="6"/>
     </row>
-    <row r="218" spans="4:4">
+    <row r="218" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D218" s="6"/>
     </row>
-    <row r="219" spans="4:4">
+    <row r="219" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D219" s="6"/>
     </row>
-    <row r="220" spans="4:4">
+    <row r="220" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D220" s="6"/>
     </row>
-    <row r="221" spans="4:4">
+    <row r="221" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D221" s="6"/>
     </row>
-    <row r="222" spans="4:4">
+    <row r="222" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D222" s="6"/>
     </row>
-    <row r="223" spans="4:4">
+    <row r="223" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D223" s="6"/>
     </row>
-    <row r="224" spans="4:4">
+    <row r="224" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D224" s="6"/>
     </row>
-    <row r="225" spans="4:4">
+    <row r="225" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D225" s="6"/>
     </row>
-    <row r="226" spans="4:4">
+    <row r="226" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D226" s="6"/>
     </row>
-    <row r="227" spans="4:4">
+    <row r="227" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D227" s="6"/>
     </row>
-    <row r="228" spans="4:4">
+    <row r="228" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D228" s="6"/>
     </row>
-    <row r="229" spans="4:4">
+    <row r="229" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D229" s="6"/>
     </row>
-    <row r="230" spans="4:4">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D230" s="6"/>
     </row>
-    <row r="231" spans="4:4">
+    <row r="231" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D231" s="6"/>
     </row>
-    <row r="232" spans="4:4">
+    <row r="232" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D232" s="6"/>
     </row>
-    <row r="233" spans="4:4">
+    <row r="233" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D233" s="6"/>
     </row>
-    <row r="234" spans="4:4">
+    <row r="234" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D234" s="6"/>
     </row>
-    <row r="235" spans="4:4">
+    <row r="235" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D235" s="6"/>
     </row>
-    <row r="236" spans="4:4">
+    <row r="236" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D236" s="6"/>
     </row>
-    <row r="237" spans="4:4">
+    <row r="237" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D237" s="6"/>
     </row>
-    <row r="238" spans="4:4">
+    <row r="238" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D238" s="6"/>
     </row>
-    <row r="239" spans="4:4">
+    <row r="239" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D239" s="6"/>
     </row>
-    <row r="240" spans="4:4">
+    <row r="240" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D240" s="6"/>
     </row>
-    <row r="241" spans="4:4">
+    <row r="241" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D241" s="6"/>
     </row>
-    <row r="242" spans="4:4">
+    <row r="242" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D242" s="6"/>
     </row>
-    <row r="243" spans="4:4">
+    <row r="243" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D243" s="6"/>
     </row>
-    <row r="244" spans="4:4">
+    <row r="244" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D244" s="6"/>
     </row>
-    <row r="245" spans="4:4">
+    <row r="245" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D245" s="6"/>
     </row>
-    <row r="246" spans="4:4">
+    <row r="246" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D246" s="6"/>
     </row>
-    <row r="247" spans="4:4">
+    <row r="247" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D247" s="6"/>
     </row>
-    <row r="248" spans="4:4">
+    <row r="248" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D248" s="6"/>
     </row>
-    <row r="249" spans="4:4">
+    <row r="249" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D249" s="6"/>
     </row>
-    <row r="250" spans="4:4">
+    <row r="250" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D250" s="6"/>
     </row>
-    <row r="251" spans="4:4">
+    <row r="251" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D251" s="6"/>
     </row>
-    <row r="252" spans="4:4">
+    <row r="252" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D252" s="6"/>
     </row>
-    <row r="253" spans="4:4">
+    <row r="253" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D253" s="6"/>
     </row>
-    <row r="254" spans="4:4">
+    <row r="254" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D254" s="6"/>
     </row>
-    <row r="255" spans="4:4">
+    <row r="255" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D255" s="6"/>
     </row>
-    <row r="256" spans="4:4">
+    <row r="256" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D256" s="6"/>
     </row>
-    <row r="257" spans="4:4">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D257" s="6"/>
     </row>
-    <row r="258" spans="4:4">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D258" s="6"/>
     </row>
-    <row r="259" spans="4:4">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D259" s="6"/>
     </row>
-    <row r="260" spans="4:4">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D260" s="6"/>
     </row>
-    <row r="261" spans="4:4">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D261" s="6"/>
     </row>
-    <row r="262" spans="4:4">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D262" s="6"/>
     </row>
-    <row r="263" spans="4:4">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D263" s="6"/>
     </row>
-    <row r="264" spans="4:4">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D264" s="6"/>
     </row>
-    <row r="265" spans="4:4">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D265" s="6"/>
     </row>
-    <row r="266" spans="4:4">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D266" s="6"/>
     </row>
-    <row r="267" spans="4:4">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D267" s="6"/>
     </row>
-    <row r="268" spans="4:4">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D268" s="6"/>
     </row>
-    <row r="269" spans="4:4">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D269" s="6"/>
     </row>
-    <row r="270" spans="4:4">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D270" s="6"/>
     </row>
-    <row r="271" spans="4:4">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D271" s="6"/>
     </row>
-    <row r="272" spans="4:4">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D272" s="6"/>
     </row>
-    <row r="273" spans="4:4">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D273" s="6"/>
     </row>
-    <row r="274" spans="4:4">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D274" s="6"/>
     </row>
-    <row r="275" spans="4:4">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D275" s="6"/>
     </row>
-    <row r="276" spans="4:4">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D276" s="6"/>
     </row>
-    <row r="277" spans="4:4">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D277" s="6"/>
     </row>
-    <row r="278" spans="4:4">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D278" s="6"/>
     </row>
-    <row r="279" spans="4:4">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D279" s="6"/>
     </row>
-    <row r="280" spans="4:4">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D280" s="6"/>
     </row>
-    <row r="281" spans="4:4">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D281" s="6"/>
     </row>
-    <row r="282" spans="4:4">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D282" s="6"/>
     </row>
-    <row r="283" spans="4:4">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D283" s="6"/>
     </row>
-    <row r="284" spans="4:4">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D284" s="6"/>
     </row>
-    <row r="285" spans="4:4">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D285" s="6"/>
     </row>
-    <row r="286" spans="4:4">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D286" s="6"/>
     </row>
-    <row r="287" spans="4:4">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D287" s="6"/>
     </row>
-    <row r="288" spans="4:4">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D288" s="6"/>
     </row>
-    <row r="289" spans="4:4">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D289" s="6"/>
     </row>
-    <row r="290" spans="4:4">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D290" s="6"/>
     </row>
-    <row r="291" spans="4:4">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D291" s="6"/>
     </row>
-    <row r="292" spans="4:4">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D292" s="6"/>
     </row>
-    <row r="293" spans="4:4">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D293" s="6"/>
     </row>
-    <row r="294" spans="4:4">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D294" s="6"/>
     </row>
-    <row r="295" spans="4:4">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D295" s="6"/>
     </row>
-    <row r="296" spans="4:4">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D296" s="6"/>
     </row>
-    <row r="297" spans="4:4">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D297" s="6"/>
     </row>
-    <row r="298" spans="4:4">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D298" s="6"/>
     </row>
-    <row r="299" spans="4:4">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D299" s="6"/>
     </row>
-    <row r="300" spans="4:4">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D300" s="6"/>
     </row>
-    <row r="301" spans="4:4">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D301" s="6"/>
     </row>
-    <row r="302" spans="4:4">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D302" s="6"/>
     </row>
-    <row r="303" spans="4:4">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D303" s="6"/>
     </row>
-    <row r="304" spans="4:4">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D304" s="6"/>
     </row>
-    <row r="305" spans="4:4">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D305" s="6"/>
     </row>
-    <row r="306" spans="4:4">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D306" s="6"/>
     </row>
-    <row r="307" spans="4:4">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D307" s="6"/>
     </row>
-    <row r="308" spans="4:4">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D308" s="6"/>
     </row>
-    <row r="309" spans="4:4">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D309" s="6"/>
     </row>
-    <row r="310" spans="4:4">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D310" s="6"/>
     </row>
-    <row r="311" spans="4:4">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D311" s="6"/>
     </row>
-    <row r="312" spans="4:4">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D312" s="6"/>
     </row>
-    <row r="313" spans="4:4">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D313" s="6"/>
     </row>
-    <row r="314" spans="4:4">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D314" s="6"/>
     </row>
-    <row r="315" spans="4:4">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D315" s="6"/>
     </row>
-    <row r="316" spans="4:4">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D316" s="6"/>
     </row>
-    <row r="317" spans="4:4">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D317" s="6"/>
     </row>
-    <row r="318" spans="4:4">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D318" s="6"/>
     </row>
-    <row r="319" spans="4:4">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D319" s="6"/>
     </row>
-    <row r="320" spans="4:4">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D320" s="6"/>
     </row>
-    <row r="321" spans="4:4">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D321" s="6"/>
     </row>
-    <row r="322" spans="4:4">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D322" s="6"/>
     </row>
-    <row r="323" spans="4:4">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D323" s="6"/>
     </row>
-    <row r="324" spans="4:4">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D324" s="6"/>
     </row>
-    <row r="325" spans="4:4">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D325" s="6"/>
     </row>
-    <row r="326" spans="4:4">
+    <row r="326" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D326" s="6"/>
     </row>
-    <row r="327" spans="4:4">
+    <row r="327" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D327" s="6"/>
     </row>
-    <row r="328" spans="4:4">
+    <row r="328" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D328" s="6"/>
     </row>
-    <row r="329" spans="4:4">
+    <row r="329" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D329" s="6"/>
     </row>
-    <row r="330" spans="4:4">
+    <row r="330" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D330" s="6"/>
     </row>
-    <row r="331" spans="4:4">
+    <row r="331" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D331" s="6"/>
     </row>
-    <row r="332" spans="4:4">
+    <row r="332" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D332" s="6"/>
     </row>
-    <row r="333" spans="4:4">
+    <row r="333" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D333" s="6"/>
     </row>
-    <row r="334" spans="4:4">
+    <row r="334" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D334" s="6"/>
     </row>
-    <row r="335" spans="4:4">
+    <row r="335" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D335" s="6"/>
     </row>
-    <row r="336" spans="4:4">
+    <row r="336" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D336" s="6"/>
     </row>
-    <row r="337" spans="4:4">
+    <row r="337" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D337" s="6"/>
     </row>
-    <row r="338" spans="4:4">
+    <row r="338" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D338" s="6"/>
     </row>
-    <row r="339" spans="4:4">
+    <row r="339" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D339" s="6"/>
     </row>
-    <row r="340" spans="4:4">
+    <row r="340" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D340" s="6"/>
     </row>
-    <row r="341" spans="4:4">
+    <row r="341" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D341" s="6"/>
     </row>
-    <row r="342" spans="4:4">
+    <row r="342" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D342" s="6"/>
     </row>
-    <row r="343" spans="4:4">
+    <row r="343" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D343" s="6"/>
     </row>
-    <row r="344" spans="4:4">
+    <row r="344" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D344" s="6"/>
     </row>
-    <row r="345" spans="4:4">
+    <row r="345" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D345" s="6"/>
     </row>
-    <row r="346" spans="4:4">
+    <row r="346" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D346" s="6"/>
     </row>
-    <row r="347" spans="4:4">
+    <row r="347" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D347" s="6"/>
     </row>
-    <row r="348" spans="4:4">
+    <row r="348" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D348" s="6"/>
     </row>
-    <row r="349" spans="4:4">
+    <row r="349" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D349" s="6"/>
     </row>
-    <row r="350" spans="4:4">
+    <row r="350" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D350" s="6"/>
     </row>
-    <row r="351" spans="4:4">
+    <row r="351" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D351" s="6"/>
     </row>
-    <row r="352" spans="4:4">
+    <row r="352" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D352" s="6"/>
     </row>
-    <row r="353" spans="4:4">
+    <row r="353" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D353" s="6"/>
     </row>
-    <row r="354" spans="4:4">
+    <row r="354" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D354" s="6"/>
     </row>
-    <row r="355" spans="4:4">
+    <row r="355" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D355" s="6"/>
     </row>
-    <row r="356" spans="4:4">
+    <row r="356" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D356" s="6"/>
     </row>
-    <row r="357" spans="4:4">
+    <row r="357" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D357" s="6"/>
     </row>
-    <row r="358" spans="4:4">
+    <row r="358" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D358" s="6"/>
     </row>
-    <row r="359" spans="4:4">
+    <row r="359" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D359" s="6"/>
     </row>
-    <row r="360" spans="4:4">
+    <row r="360" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D360" s="6"/>
     </row>
-    <row r="361" spans="4:4">
+    <row r="361" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D361" s="6"/>
     </row>
-    <row r="362" spans="4:4">
+    <row r="362" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D362" s="6"/>
     </row>
-    <row r="363" spans="4:4">
+    <row r="363" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D363" s="6"/>
     </row>
-    <row r="364" spans="4:4">
+    <row r="364" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D364" s="6"/>
     </row>
-    <row r="365" spans="4:4">
+    <row r="365" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D365" s="6"/>
     </row>
-    <row r="366" spans="4:4">
+    <row r="366" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D366" s="6"/>
     </row>
-    <row r="367" spans="4:4">
+    <row r="367" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D367" s="6"/>
     </row>
-    <row r="368" spans="4:4">
+    <row r="368" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D368" s="6"/>
     </row>
-    <row r="369" spans="4:4">
+    <row r="369" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D369" s="6"/>
     </row>
-    <row r="370" spans="4:4">
+    <row r="370" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D370" s="6"/>
     </row>
-    <row r="371" spans="4:4">
+    <row r="371" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D371" s="6"/>
     </row>
-    <row r="372" spans="4:4">
+    <row r="372" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D372" s="6"/>
     </row>
-    <row r="373" spans="4:4">
+    <row r="373" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D373" s="6"/>
     </row>
-    <row r="374" spans="4:4">
+    <row r="374" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D374" s="6"/>
     </row>
-    <row r="375" spans="4:4">
+    <row r="375" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D375" s="6"/>
     </row>
-    <row r="376" spans="4:4">
+    <row r="376" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D376" s="6"/>
     </row>
-    <row r="377" spans="4:4">
+    <row r="377" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D377" s="6"/>
     </row>
-    <row r="378" spans="4:4">
+    <row r="378" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D378" s="6"/>
     </row>
-    <row r="379" spans="4:4">
+    <row r="379" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D379" s="6"/>
     </row>
-    <row r="380" spans="4:4">
+    <row r="380" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D380" s="6"/>
     </row>
-    <row r="381" spans="4:4">
+    <row r="381" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D381" s="6"/>
     </row>
-    <row r="382" spans="4:4">
+    <row r="382" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D382" s="6"/>
     </row>
-    <row r="383" spans="4:4">
+    <row r="383" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D383" s="6"/>
     </row>
-    <row r="384" spans="4:4">
+    <row r="384" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D384" s="6"/>
     </row>
-    <row r="385" spans="4:4">
+    <row r="385" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D385" s="6"/>
     </row>
-    <row r="386" spans="4:4">
+    <row r="386" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D386" s="6"/>
     </row>
-    <row r="387" spans="4:4">
+    <row r="387" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D387" s="6"/>
     </row>
-    <row r="388" spans="4:4">
+    <row r="388" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D388" s="6"/>
     </row>
-    <row r="389" spans="4:4">
+    <row r="389" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D389" s="6"/>
     </row>
-    <row r="390" spans="4:4">
+    <row r="390" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D390" s="6"/>
     </row>
-    <row r="391" spans="4:4">
+    <row r="391" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D391" s="6"/>
     </row>
-    <row r="392" spans="4:4">
+    <row r="392" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D392" s="6"/>
     </row>
-    <row r="393" spans="4:4">
+    <row r="393" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D393" s="6"/>
     </row>
-    <row r="394" spans="4:4">
+    <row r="394" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D394" s="6"/>
     </row>
-    <row r="395" spans="4:4">
+    <row r="395" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D395" s="6"/>
     </row>
-    <row r="396" spans="4:4">
+    <row r="396" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D396" s="6"/>
     </row>
-    <row r="397" spans="4:4">
+    <row r="397" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D397" s="6"/>
     </row>
-    <row r="398" spans="4:4">
+    <row r="398" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D398" s="6"/>
     </row>
-    <row r="399" spans="4:4">
+    <row r="399" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D399" s="6"/>
     </row>
-    <row r="400" spans="4:4">
+    <row r="400" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D400" s="6"/>
     </row>
-    <row r="401" spans="4:4">
+    <row r="401" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D401" s="6"/>
     </row>
-    <row r="402" spans="4:4">
+    <row r="402" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D402" s="6"/>
     </row>
-    <row r="403" spans="4:4">
+    <row r="403" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D403" s="6"/>
     </row>
-    <row r="404" spans="4:4">
+    <row r="404" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D404" s="6"/>
     </row>
-    <row r="405" spans="4:4">
+    <row r="405" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D405" s="6"/>
     </row>
-    <row r="406" spans="4:4">
+    <row r="406" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D406" s="6"/>
     </row>
-    <row r="407" spans="4:4">
+    <row r="407" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D407" s="6"/>
     </row>
-    <row r="408" spans="4:4">
+    <row r="408" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D408" s="6"/>
     </row>
-    <row r="409" spans="4:4">
+    <row r="409" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D409" s="6"/>
     </row>
-    <row r="410" spans="4:4">
+    <row r="410" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D410" s="6"/>
     </row>
-    <row r="411" spans="4:4">
+    <row r="411" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D411" s="6"/>
     </row>
-    <row r="412" spans="4:4">
+    <row r="412" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D412" s="6"/>
     </row>
-    <row r="413" spans="4:4">
+    <row r="413" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D413" s="6"/>
     </row>
-    <row r="414" spans="4:4">
+    <row r="414" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D414" s="6"/>
     </row>
-    <row r="415" spans="4:4">
+    <row r="415" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D415" s="6"/>
     </row>
-    <row r="416" spans="4:4">
+    <row r="416" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D416" s="6"/>
     </row>
-    <row r="417" spans="4:4">
+    <row r="417" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D417" s="6"/>
     </row>
-    <row r="418" spans="4:4">
+    <row r="418" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D418" s="6"/>
     </row>
-    <row r="419" spans="4:4">
+    <row r="419" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D419" s="6"/>
     </row>
-    <row r="420" spans="4:4">
+    <row r="420" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D420" s="6"/>
     </row>
-    <row r="421" spans="4:4">
+    <row r="421" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D421" s="6"/>
     </row>
-    <row r="422" spans="4:4">
+    <row r="422" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D422" s="6"/>
     </row>
-    <row r="423" spans="4:4">
+    <row r="423" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D423" s="6"/>
     </row>
-    <row r="424" spans="4:4">
+    <row r="424" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D424" s="6"/>
     </row>
-    <row r="425" spans="4:4">
+    <row r="425" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D425" s="6"/>
     </row>
-    <row r="426" spans="4:4">
+    <row r="426" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D426" s="6"/>
     </row>
-    <row r="427" spans="4:4">
+    <row r="427" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D427" s="6"/>
     </row>
-    <row r="428" spans="4:4">
+    <row r="428" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D428" s="6"/>
     </row>
-    <row r="429" spans="4:4">
+    <row r="429" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D429" s="6"/>
     </row>
-    <row r="430" spans="4:4">
+    <row r="430" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D430" s="6"/>
     </row>
-    <row r="431" spans="4:4">
+    <row r="431" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D431" s="6"/>
     </row>
-    <row r="432" spans="4:4">
+    <row r="432" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D432" s="6"/>
     </row>
-    <row r="433" spans="4:4">
+    <row r="433" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D433" s="6"/>
     </row>
-    <row r="434" spans="4:4">
+    <row r="434" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D434" s="6"/>
     </row>
-    <row r="435" spans="4:4">
+    <row r="435" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D435" s="6"/>
     </row>
-    <row r="436" spans="4:4">
+    <row r="436" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D436" s="6"/>
     </row>
-    <row r="437" spans="4:4">
+    <row r="437" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D437" s="6"/>
     </row>
-    <row r="438" spans="4:4">
+    <row r="438" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D438" s="6"/>
     </row>
-    <row r="439" spans="4:4">
+    <row r="439" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D439" s="6"/>
     </row>
-    <row r="440" spans="4:4">
+    <row r="440" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D440" s="6"/>
     </row>
-    <row r="441" spans="4:4">
+    <row r="441" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D441" s="6"/>
     </row>
-    <row r="442" spans="4:4">
+    <row r="442" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D442" s="6"/>
     </row>
-    <row r="443" spans="4:4">
+    <row r="443" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D443" s="6"/>
     </row>
-    <row r="444" spans="4:4">
+    <row r="444" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D444" s="6"/>
     </row>
-    <row r="445" spans="4:4">
+    <row r="445" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D445" s="6"/>
     </row>
-    <row r="446" spans="4:4">
+    <row r="446" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D446" s="6"/>
     </row>
-    <row r="447" spans="4:4">
+    <row r="447" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D447" s="6"/>
     </row>
-    <row r="448" spans="4:4">
+    <row r="448" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D448" s="6"/>
     </row>
-    <row r="449" spans="4:4">
+    <row r="449" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D449" s="6"/>
     </row>
-    <row r="450" spans="4:4">
+    <row r="450" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D450" s="6"/>
     </row>
-    <row r="451" spans="4:4">
+    <row r="451" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D451" s="6"/>
     </row>
-    <row r="452" spans="4:4">
+    <row r="452" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D452" s="6"/>
     </row>
-    <row r="453" spans="4:4">
+    <row r="453" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D453" s="6"/>
     </row>
-    <row r="454" spans="4:4">
+    <row r="454" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D454" s="6"/>
     </row>
-    <row r="455" spans="4:4">
+    <row r="455" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D455" s="6"/>
     </row>
-    <row r="456" spans="4:4">
+    <row r="456" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D456" s="6"/>
     </row>
-    <row r="457" spans="4:4">
+    <row r="457" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D457" s="6"/>
     </row>
-    <row r="458" spans="4:4">
+    <row r="458" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D458" s="6"/>
     </row>
-    <row r="459" spans="4:4">
+    <row r="459" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D459" s="6"/>
     </row>
-    <row r="460" spans="4:4">
+    <row r="460" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D460" s="6"/>
     </row>
-    <row r="461" spans="4:4">
+    <row r="461" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D461" s="6"/>
     </row>
-    <row r="462" spans="4:4">
+    <row r="462" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D462" s="6"/>
     </row>
-    <row r="463" spans="4:4">
+    <row r="463" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D463" s="6"/>
     </row>
-    <row r="464" spans="4:4">
+    <row r="464" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D464" s="6"/>
     </row>
-    <row r="465" spans="4:4">
+    <row r="465" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D465" s="6"/>
     </row>
-    <row r="466" spans="4:4">
+    <row r="466" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D466" s="6"/>
     </row>
-    <row r="467" spans="4:4">
+    <row r="467" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D467" s="6"/>
     </row>
-    <row r="468" spans="4:4">
+    <row r="468" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D468" s="6"/>
     </row>
-    <row r="469" spans="4:4">
+    <row r="469" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D469" s="6"/>
     </row>
-    <row r="470" spans="4:4">
+    <row r="470" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D470" s="6"/>
     </row>
-    <row r="471" spans="4:4">
+    <row r="471" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D471" s="6"/>
     </row>
-    <row r="472" spans="4:4">
+    <row r="472" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D472" s="6"/>
     </row>
-    <row r="473" spans="4:4">
+    <row r="473" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D473" s="6"/>
     </row>
-    <row r="474" spans="4:4">
+    <row r="474" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D474" s="6"/>
     </row>
-    <row r="475" spans="4:4">
+    <row r="475" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D475" s="6"/>
     </row>
-    <row r="476" spans="4:4">
+    <row r="476" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D476" s="6"/>
     </row>
-    <row r="477" spans="4:4">
+    <row r="477" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D477" s="6"/>
     </row>
-    <row r="478" spans="4:4">
+    <row r="478" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D478" s="6"/>
     </row>
-    <row r="479" spans="4:4">
+    <row r="479" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D479" s="6"/>
     </row>
-    <row r="480" spans="4:4">
+    <row r="480" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D480" s="6"/>
     </row>
-    <row r="481" spans="4:4">
+    <row r="481" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D481" s="6"/>
     </row>
-    <row r="482" spans="4:4">
+    <row r="482" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D482" s="6"/>
     </row>
-    <row r="483" spans="4:4">
+    <row r="483" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D483" s="6"/>
     </row>
-    <row r="484" spans="4:4">
+    <row r="484" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D484" s="6"/>
     </row>
-    <row r="485" spans="4:4">
+    <row r="485" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D485" s="6"/>
     </row>
-    <row r="486" spans="4:4">
+    <row r="486" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D486" s="6"/>
     </row>
-    <row r="487" spans="4:4">
+    <row r="487" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D487" s="6"/>
     </row>
-    <row r="488" spans="4:4">
+    <row r="488" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D488" s="6"/>
     </row>
-    <row r="489" spans="4:4">
+    <row r="489" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D489" s="6"/>
     </row>
-    <row r="490" spans="4:4">
+    <row r="490" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D490" s="6"/>
     </row>
-    <row r="491" spans="4:4">
+    <row r="491" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D491" s="6"/>
     </row>
-    <row r="492" spans="4:4">
+    <row r="492" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D492" s="6"/>
     </row>
-    <row r="493" spans="4:4">
+    <row r="493" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D493" s="6"/>
     </row>
-    <row r="494" spans="4:4">
+    <row r="494" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D494" s="6"/>
     </row>
-    <row r="495" spans="4:4">
+    <row r="495" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D495" s="6"/>
     </row>
-    <row r="496" spans="4:4">
+    <row r="496" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D496" s="6"/>
     </row>
-    <row r="497" spans="4:4">
+    <row r="497" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D497" s="6"/>
     </row>
-    <row r="498" spans="4:4">
+    <row r="498" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D498" s="6"/>
     </row>
-    <row r="499" spans="4:4">
+    <row r="499" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D499" s="6"/>
     </row>
-    <row r="500" spans="4:4">
+    <row r="500" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D500" s="6"/>
     </row>
-    <row r="501" spans="4:4">
+    <row r="501" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D501" s="6"/>
     </row>
-    <row r="502" spans="4:4">
+    <row r="502" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D502" s="6"/>
     </row>
-    <row r="503" spans="4:4">
+    <row r="503" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D503" s="6"/>
     </row>
-    <row r="504" spans="4:4">
+    <row r="504" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D504" s="6"/>
     </row>
-    <row r="505" spans="4:4">
+    <row r="505" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D505" s="6"/>
     </row>
-    <row r="506" spans="4:4">
+    <row r="506" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D506" s="6"/>
     </row>
-    <row r="507" spans="4:4">
+    <row r="507" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D507" s="6"/>
     </row>
-    <row r="508" spans="4:4">
+    <row r="508" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D508" s="6"/>
     </row>
-    <row r="509" spans="4:4">
+    <row r="509" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D509" s="6"/>
     </row>
-    <row r="510" spans="4:4">
+    <row r="510" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D510" s="6"/>
     </row>
-    <row r="511" spans="4:4">
+    <row r="511" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D511" s="6"/>
     </row>
-    <row r="512" spans="4:4">
+    <row r="512" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D512" s="6"/>
     </row>
-    <row r="513" spans="4:4">
+    <row r="513" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D513" s="6"/>
     </row>
-    <row r="514" spans="4:4">
+    <row r="514" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D514" s="6"/>
     </row>
-    <row r="515" spans="4:4">
+    <row r="515" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D515" s="6"/>
     </row>
-    <row r="516" spans="4:4">
+    <row r="516" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D516" s="6"/>
     </row>
-    <row r="517" spans="4:4">
+    <row r="517" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D517" s="6"/>
     </row>
-    <row r="518" spans="4:4">
+    <row r="518" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D518" s="6"/>
     </row>
-    <row r="519" spans="4:4">
+    <row r="519" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D519" s="6"/>
     </row>
-    <row r="520" spans="4:4">
+    <row r="520" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D520" s="6"/>
     </row>
-    <row r="521" spans="4:4">
+    <row r="521" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D521" s="6"/>
     </row>
-    <row r="522" spans="4:4">
+    <row r="522" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D522" s="6"/>
     </row>
-    <row r="523" spans="4:4">
+    <row r="523" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D523" s="6"/>
     </row>
-    <row r="524" spans="4:4">
+    <row r="524" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D524" s="6"/>
     </row>
-    <row r="525" spans="4:4">
+    <row r="525" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D525" s="6"/>
     </row>
-    <row r="526" spans="4:4">
+    <row r="526" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D526" s="6"/>
     </row>
-    <row r="527" spans="4:4">
+    <row r="527" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D527" s="6"/>
     </row>
-    <row r="528" spans="4:4">
+    <row r="528" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D528" s="6"/>
     </row>
-    <row r="529" spans="4:4">
+    <row r="529" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D529" s="6"/>
     </row>
-    <row r="530" spans="4:4">
+    <row r="530" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D530" s="6"/>
     </row>
-    <row r="531" spans="4:4">
+    <row r="531" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D531" s="6"/>
     </row>
-    <row r="532" spans="4:4">
+    <row r="532" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D532" s="6"/>
     </row>
-    <row r="533" spans="4:4">
+    <row r="533" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D533" s="6"/>
     </row>
-    <row r="534" spans="4:4">
+    <row r="534" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D534" s="6"/>
     </row>
-    <row r="535" spans="4:4">
+    <row r="535" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D535" s="6"/>
     </row>
-    <row r="536" spans="4:4">
+    <row r="536" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D536" s="6"/>
     </row>
-    <row r="537" spans="4:4">
+    <row r="537" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D537" s="6"/>
     </row>
-    <row r="538" spans="4:4">
+    <row r="538" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D538" s="6"/>
     </row>
-    <row r="539" spans="4:4">
+    <row r="539" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D539" s="6"/>
     </row>
-    <row r="540" spans="4:4">
+    <row r="540" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D540" s="6"/>
     </row>
-    <row r="541" spans="4:4">
+    <row r="541" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D541" s="6"/>
     </row>
-    <row r="542" spans="4:4">
+    <row r="542" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D542" s="6"/>
     </row>
-    <row r="543" spans="4:4">
+    <row r="543" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D543" s="6"/>
     </row>
-    <row r="544" spans="4:4">
+    <row r="544" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D544" s="6"/>
     </row>
-    <row r="545" spans="4:4">
+    <row r="545" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D545" s="6"/>
     </row>
-    <row r="546" spans="4:4">
+    <row r="546" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D546" s="6"/>
     </row>
-    <row r="547" spans="4:4">
+    <row r="547" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D547" s="6"/>
     </row>
-    <row r="548" spans="4:4">
+    <row r="548" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D548" s="6"/>
     </row>
-    <row r="549" spans="4:4">
+    <row r="549" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D549" s="6"/>
     </row>
-    <row r="550" spans="4:4">
+    <row r="550" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D550" s="6"/>
     </row>
-    <row r="551" spans="4:4">
+    <row r="551" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D551" s="6"/>
     </row>
-    <row r="552" spans="4:4">
+    <row r="552" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D552" s="6"/>
     </row>
-    <row r="553" spans="4:4">
+    <row r="553" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D553" s="6"/>
     </row>
-    <row r="554" spans="4:4">
+    <row r="554" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D554" s="6"/>
     </row>
-    <row r="555" spans="4:4">
+    <row r="555" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D555" s="6"/>
     </row>
-    <row r="556" spans="4:4">
+    <row r="556" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D556" s="6"/>
     </row>
-    <row r="557" spans="4:4">
+    <row r="557" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D557" s="6"/>
     </row>
-    <row r="558" spans="4:4">
+    <row r="558" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D558" s="6"/>
     </row>
-    <row r="559" spans="4:4">
+    <row r="559" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D559" s="6"/>
     </row>
-    <row r="560" spans="4:4">
+    <row r="560" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D560" s="6"/>
     </row>
-    <row r="561" spans="4:4">
+    <row r="561" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D561" s="6"/>
     </row>
-    <row r="562" spans="4:4">
+    <row r="562" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D562" s="6"/>
     </row>
-    <row r="563" spans="4:4">
+    <row r="563" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D563" s="6"/>
     </row>
-    <row r="564" spans="4:4">
+    <row r="564" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D564" s="6"/>
     </row>
-    <row r="565" spans="4:4">
+    <row r="565" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D565" s="6"/>
     </row>
-    <row r="566" spans="4:4">
+    <row r="566" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D566" s="6"/>
     </row>
-    <row r="567" spans="4:4">
+    <row r="567" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D567" s="6"/>
     </row>
-    <row r="568" spans="4:4">
+    <row r="568" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D568" s="6"/>
     </row>
-    <row r="569" spans="4:4">
+    <row r="569" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D569" s="6"/>
     </row>
-    <row r="570" spans="4:4">
+    <row r="570" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D570" s="6"/>
     </row>
-    <row r="571" spans="4:4">
+    <row r="571" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D571" s="6"/>
     </row>
-    <row r="572" spans="4:4">
+    <row r="572" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D572" s="6"/>
     </row>
-    <row r="573" spans="4:4">
+    <row r="573" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D573" s="6"/>
     </row>
-    <row r="574" spans="4:4">
+    <row r="574" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D574" s="6"/>
     </row>
-    <row r="575" spans="4:4">
+    <row r="575" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D575" s="6"/>
     </row>
-    <row r="576" spans="4:4">
+    <row r="576" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D576" s="6"/>
     </row>
-    <row r="577" spans="4:4">
+    <row r="577" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D577" s="6"/>
     </row>
-    <row r="578" spans="4:4">
+    <row r="578" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D578" s="6"/>
     </row>
-    <row r="579" spans="4:4">
+    <row r="579" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D579" s="6"/>
     </row>
-    <row r="580" spans="4:4">
+    <row r="580" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D580" s="6"/>
     </row>
-    <row r="581" spans="4:4">
+    <row r="581" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D581" s="6"/>
     </row>
-    <row r="582" spans="4:4">
+    <row r="582" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D582" s="6"/>
     </row>
-    <row r="583" spans="4:4">
+    <row r="583" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D583" s="6"/>
     </row>
-    <row r="584" spans="4:4">
+    <row r="584" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D584" s="6"/>
     </row>
-    <row r="585" spans="4:4">
+    <row r="585" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D585" s="6"/>
     </row>
-    <row r="586" spans="4:4">
+    <row r="586" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D586" s="6"/>
     </row>
-    <row r="587" spans="4:4">
+    <row r="587" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D587" s="6"/>
     </row>
-    <row r="588" spans="4:4">
+    <row r="588" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D588" s="6"/>
     </row>
-    <row r="589" spans="4:4">
+    <row r="589" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D589" s="6"/>
     </row>
-    <row r="590" spans="4:4">
+    <row r="590" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D590" s="6"/>
     </row>
-    <row r="591" spans="4:4">
+    <row r="591" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D591" s="6"/>
     </row>
-    <row r="592" spans="4:4">
+    <row r="592" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D592" s="6"/>
     </row>
-    <row r="593" spans="4:4">
+    <row r="593" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D593" s="6"/>
     </row>
-    <row r="594" spans="4:4">
+    <row r="594" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D594" s="6"/>
     </row>
-    <row r="595" spans="4:4">
+    <row r="595" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D595" s="6"/>
     </row>
-    <row r="596" spans="4:4">
+    <row r="596" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D596" s="6"/>
     </row>
-    <row r="597" spans="4:4">
+    <row r="597" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D597" s="6"/>
     </row>
-    <row r="598" spans="4:4">
+    <row r="598" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D598" s="6"/>
     </row>
-    <row r="599" spans="4:4">
+    <row r="599" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D599" s="6"/>
     </row>
-    <row r="600" spans="4:4">
+    <row r="600" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D600" s="6"/>
     </row>
-    <row r="601" spans="4:4">
+    <row r="601" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D601" s="6"/>
     </row>
-    <row r="602" spans="4:4">
+    <row r="602" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D602" s="6"/>
     </row>
-    <row r="603" spans="4:4">
+    <row r="603" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D603" s="6"/>
     </row>
-    <row r="604" spans="4:4">
+    <row r="604" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D604" s="6"/>
     </row>
-    <row r="605" spans="4:4">
+    <row r="605" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D605" s="6"/>
     </row>
-    <row r="606" spans="4:4">
+    <row r="606" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D606" s="6"/>
     </row>
-    <row r="607" spans="4:4">
+    <row r="607" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D607" s="6"/>
     </row>
-    <row r="608" spans="4:4">
+    <row r="608" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D608" s="6"/>
     </row>
-    <row r="609" spans="4:4">
+    <row r="609" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D609" s="6"/>
     </row>
-    <row r="610" spans="4:4">
+    <row r="610" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D610" s="6"/>
     </row>
-    <row r="611" spans="4:4">
+    <row r="611" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D611" s="6"/>
     </row>
-    <row r="612" spans="4:4">
+    <row r="612" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D612" s="6"/>
     </row>
-    <row r="613" spans="4:4">
+    <row r="613" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D613" s="6"/>
     </row>
-    <row r="614" spans="4:4">
+    <row r="614" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D614" s="6"/>
     </row>
-    <row r="615" spans="4:4">
+    <row r="615" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D615" s="6"/>
     </row>
-    <row r="616" spans="4:4">
+    <row r="616" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D616" s="6"/>
     </row>
-    <row r="617" spans="4:4">
+    <row r="617" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D617" s="6"/>
     </row>
-    <row r="618" spans="4:4">
+    <row r="618" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D618" s="6"/>
     </row>
-    <row r="619" spans="4:4">
+    <row r="619" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D619" s="6"/>
     </row>
-    <row r="620" spans="4:4">
+    <row r="620" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D620" s="6"/>
     </row>
-    <row r="621" spans="4:4">
+    <row r="621" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D621" s="6"/>
     </row>
-    <row r="622" spans="4:4">
+    <row r="622" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D622" s="6"/>
     </row>
-    <row r="623" spans="4:4">
+    <row r="623" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D623" s="6"/>
     </row>
-    <row r="624" spans="4:4">
+    <row r="624" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D624" s="6"/>
     </row>
-    <row r="625" spans="4:4">
+    <row r="625" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D625" s="6"/>
     </row>
-    <row r="626" spans="4:4">
+    <row r="626" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D626" s="6"/>
     </row>
-    <row r="627" spans="4:4">
+    <row r="627" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D627" s="6"/>
     </row>
-    <row r="628" spans="4:4">
+    <row r="628" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D628" s="6"/>
     </row>
-    <row r="629" spans="4:4">
+    <row r="629" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D629" s="6"/>
     </row>
-    <row r="630" spans="4:4">
+    <row r="630" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D630" s="6"/>
     </row>
-    <row r="631" spans="4:4">
+    <row r="631" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D631" s="6"/>
     </row>
-    <row r="632" spans="4:4">
+    <row r="632" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D632" s="6"/>
     </row>
-    <row r="633" spans="4:4">
+    <row r="633" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D633" s="6"/>
     </row>
-    <row r="634" spans="4:4">
+    <row r="634" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D634" s="6"/>
     </row>
-    <row r="635" spans="4:4">
+    <row r="635" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D635" s="6"/>
     </row>
-    <row r="636" spans="4:4">
+    <row r="636" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D636" s="6"/>
     </row>
-    <row r="637" spans="4:4">
+    <row r="637" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D637" s="6"/>
     </row>
-    <row r="638" spans="4:4">
+    <row r="638" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D638" s="6"/>
     </row>
-    <row r="639" spans="4:4">
+    <row r="639" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D639" s="6"/>
     </row>
-    <row r="640" spans="4:4">
+    <row r="640" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D640" s="6"/>
     </row>
-    <row r="641" spans="4:4">
+    <row r="641" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D641" s="6"/>
     </row>
-    <row r="642" spans="4:4">
+    <row r="642" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D642" s="6"/>
     </row>
-    <row r="643" spans="4:4">
+    <row r="643" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D643" s="6"/>
     </row>
-    <row r="644" spans="4:4">
+    <row r="644" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D644" s="6"/>
     </row>
-    <row r="645" spans="4:4">
+    <row r="645" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D645" s="6"/>
     </row>
-    <row r="646" spans="4:4">
+    <row r="646" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D646" s="6"/>
     </row>
-    <row r="647" spans="4:4">
+    <row r="647" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D647" s="6"/>
     </row>
-    <row r="648" spans="4:4">
+    <row r="648" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D648" s="6"/>
     </row>
-    <row r="649" spans="4:4">
+    <row r="649" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D649" s="6"/>
     </row>
-    <row r="650" spans="4:4">
+    <row r="650" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D650" s="6"/>
     </row>
-    <row r="651" spans="4:4">
+    <row r="651" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D651" s="6"/>
     </row>
-    <row r="652" spans="4:4">
+    <row r="652" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D652" s="6"/>
     </row>
-    <row r="653" spans="4:4">
+    <row r="653" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D653" s="6"/>
     </row>
-    <row r="654" spans="4:4">
+    <row r="654" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D654" s="6"/>
     </row>
-    <row r="655" spans="4:4">
+    <row r="655" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D655" s="6"/>
     </row>
-    <row r="656" spans="4:4">
+    <row r="656" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D656" s="6"/>
     </row>
-    <row r="657" spans="4:4">
+    <row r="657" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D657" s="6"/>
     </row>
-    <row r="658" spans="4:4">
+    <row r="658" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D658" s="6"/>
     </row>
-    <row r="659" spans="4:4">
+    <row r="659" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D659" s="6"/>
     </row>
-    <row r="660" spans="4:4">
+    <row r="660" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D660" s="6"/>
     </row>
-    <row r="661" spans="4:4">
+    <row r="661" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D661" s="6"/>
     </row>
-    <row r="662" spans="4:4">
+    <row r="662" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D662" s="6"/>
     </row>
-    <row r="663" spans="4:4">
+    <row r="663" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D663" s="6"/>
     </row>
-    <row r="664" spans="4:4">
+    <row r="664" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D664" s="6"/>
     </row>
-    <row r="665" spans="4:4">
+    <row r="665" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D665" s="6"/>
     </row>
-    <row r="666" spans="4:4">
+    <row r="666" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D666" s="6"/>
     </row>
-    <row r="667" spans="4:4">
+    <row r="667" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D667" s="6"/>
     </row>
-    <row r="668" spans="4:4">
+    <row r="668" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D668" s="6"/>
     </row>
-    <row r="669" spans="4:4">
+    <row r="669" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D669" s="6"/>
     </row>
-    <row r="670" spans="4:4">
+    <row r="670" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D670" s="6"/>
     </row>
-    <row r="671" spans="4:4">
+    <row r="671" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D671" s="6"/>
     </row>
-    <row r="672" spans="4:4">
+    <row r="672" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D672" s="6"/>
     </row>
-    <row r="673" spans="4:4">
+    <row r="673" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D673" s="6"/>
     </row>
-    <row r="674" spans="4:4">
+    <row r="674" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D674" s="6"/>
     </row>
-    <row r="675" spans="4:4">
+    <row r="675" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D675" s="6"/>
     </row>
-    <row r="676" spans="4:4">
+    <row r="676" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D676" s="6"/>
     </row>
-    <row r="677" spans="4:4">
+    <row r="677" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D677" s="6"/>
     </row>
-    <row r="678" spans="4:4">
+    <row r="678" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D678" s="6"/>
     </row>
-    <row r="679" spans="4:4">
+    <row r="679" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D679" s="6"/>
     </row>
-    <row r="680" spans="4:4">
+    <row r="680" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D680" s="6"/>
     </row>
-    <row r="681" spans="4:4">
+    <row r="681" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D681" s="6"/>
     </row>
-    <row r="682" spans="4:4">
+    <row r="682" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D682" s="6"/>
     </row>
-    <row r="683" spans="4:4">
+    <row r="683" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D683" s="6"/>
     </row>
-    <row r="684" spans="4:4">
+    <row r="684" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D684" s="6"/>
     </row>
-    <row r="685" spans="4:4">
+    <row r="685" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D685" s="6"/>
     </row>
-    <row r="686" spans="4:4">
+    <row r="686" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D686" s="6"/>
     </row>
-    <row r="687" spans="4:4">
+    <row r="687" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D687" s="6"/>
     </row>
-    <row r="688" spans="4:4">
+    <row r="688" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D688" s="6"/>
     </row>
-    <row r="689" spans="4:4">
+    <row r="689" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D689" s="6"/>
     </row>
-    <row r="690" spans="4:4">
+    <row r="690" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D690" s="6"/>
     </row>
-    <row r="691" spans="4:4">
+    <row r="691" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D691" s="6"/>
     </row>
-    <row r="692" spans="4:4">
+    <row r="692" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D692" s="6"/>
     </row>
-    <row r="693" spans="4:4">
+    <row r="693" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D693" s="6"/>
     </row>
-    <row r="694" spans="4:4">
+    <row r="694" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D694" s="6"/>
     </row>
-    <row r="695" spans="4:4">
+    <row r="695" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D695" s="6"/>
     </row>
-    <row r="696" spans="4:4">
+    <row r="696" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D696" s="6"/>
     </row>
-    <row r="697" spans="4:4">
+    <row r="697" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D697" s="6"/>
     </row>
-    <row r="698" spans="4:4">
+    <row r="698" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D698" s="6"/>
     </row>
-    <row r="699" spans="4:4">
+    <row r="699" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D699" s="6"/>
     </row>
-    <row r="700" spans="4:4">
+    <row r="700" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D700" s="6"/>
     </row>
-    <row r="701" spans="4:4">
+    <row r="701" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D701" s="6"/>
     </row>
-    <row r="702" spans="4:4">
+    <row r="702" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D702" s="6"/>
     </row>
-    <row r="703" spans="4:4">
+    <row r="703" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D703" s="6"/>
     </row>
-    <row r="704" spans="4:4">
+    <row r="704" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D704" s="6"/>
     </row>
-    <row r="705" spans="4:4">
+    <row r="705" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D705" s="6"/>
     </row>
-    <row r="706" spans="4:4">
+    <row r="706" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D706" s="6"/>
     </row>
-    <row r="707" spans="4:4">
+    <row r="707" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D707" s="6"/>
     </row>
-    <row r="708" spans="4:4">
+    <row r="708" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D708" s="6"/>
     </row>
-    <row r="709" spans="4:4">
+    <row r="709" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D709" s="6"/>
     </row>
-    <row r="710" spans="4:4">
+    <row r="710" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D710" s="6"/>
     </row>
-    <row r="711" spans="4:4">
+    <row r="711" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D711" s="6"/>
     </row>
-    <row r="712" spans="4:4">
+    <row r="712" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D712" s="6"/>
     </row>
-    <row r="713" spans="4:4">
+    <row r="713" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D713" s="6"/>
     </row>
-    <row r="714" spans="4:4">
+    <row r="714" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D714" s="6"/>
     </row>
-    <row r="715" spans="4:4">
+    <row r="715" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D715" s="6"/>
     </row>
-    <row r="716" spans="4:4">
+    <row r="716" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D716" s="6"/>
     </row>
-    <row r="717" spans="4:4">
+    <row r="717" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D717" s="6"/>
     </row>
-    <row r="718" spans="4:4">
+    <row r="718" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D718" s="6"/>
     </row>
-    <row r="719" spans="4:4">
+    <row r="719" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D719" s="6"/>
     </row>
-    <row r="720" spans="4:4">
+    <row r="720" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D720" s="6"/>
     </row>
-    <row r="721" spans="4:4">
+    <row r="721" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D721" s="6"/>
     </row>
-    <row r="722" spans="4:4">
+    <row r="722" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D722" s="6"/>
     </row>
-    <row r="723" spans="4:4">
+    <row r="723" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D723" s="6"/>
     </row>
-    <row r="724" spans="4:4">
+    <row r="724" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D724" s="6"/>
     </row>
-    <row r="725" spans="4:4">
+    <row r="725" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D725" s="6"/>
     </row>
-    <row r="726" spans="4:4">
+    <row r="726" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D726" s="6"/>
     </row>
-    <row r="727" spans="4:4">
+    <row r="727" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D727" s="6"/>
     </row>
-    <row r="728" spans="4:4">
+    <row r="728" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D728" s="6"/>
     </row>
-    <row r="729" spans="4:4">
+    <row r="729" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D729" s="6"/>
     </row>
-    <row r="730" spans="4:4">
+    <row r="730" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D730" s="6"/>
     </row>
-    <row r="731" spans="4:4">
+    <row r="731" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D731" s="6"/>
     </row>
-    <row r="732" spans="4:4">
+    <row r="732" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D732" s="6"/>
     </row>
-    <row r="733" spans="4:4">
+    <row r="733" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D733" s="6"/>
     </row>
-    <row r="734" spans="4:4">
+    <row r="734" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D734" s="6"/>
     </row>
-    <row r="735" spans="4:4">
+    <row r="735" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D735" s="6"/>
     </row>
-    <row r="736" spans="4:4">
+    <row r="736" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D736" s="6"/>
     </row>
-    <row r="737" spans="4:4">
+    <row r="737" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D737" s="6"/>
     </row>
-    <row r="738" spans="4:4">
+    <row r="738" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D738" s="6"/>
     </row>
-    <row r="739" spans="4:4">
+    <row r="739" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D739" s="6"/>
     </row>
-    <row r="740" spans="4:4">
+    <row r="740" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D740" s="6"/>
     </row>
-    <row r="741" spans="4:4">
+    <row r="741" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D741" s="6"/>
     </row>
-    <row r="742" spans="4:4">
+    <row r="742" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D742" s="6"/>
     </row>
-    <row r="743" spans="4:4">
+    <row r="743" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D743" s="6"/>
     </row>
-    <row r="744" spans="4:4">
+    <row r="744" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D744" s="6"/>
     </row>
-    <row r="745" spans="4:4">
+    <row r="745" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D745" s="6"/>
     </row>
-    <row r="746" spans="4:4">
+    <row r="746" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D746" s="6"/>
     </row>
-    <row r="747" spans="4:4">
+    <row r="747" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D747" s="6"/>
     </row>
-    <row r="748" spans="4:4">
+    <row r="748" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D748" s="6"/>
     </row>
-    <row r="749" spans="4:4">
+    <row r="749" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D749" s="6"/>
     </row>
-    <row r="750" spans="4:4">
+    <row r="750" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D750" s="6"/>
     </row>
-    <row r="751" spans="4:4">
+    <row r="751" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D751" s="6"/>
     </row>
-    <row r="752" spans="4:4">
+    <row r="752" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D752" s="6"/>
     </row>
-    <row r="753" spans="4:4">
+    <row r="753" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D753" s="6"/>
     </row>
-    <row r="754" spans="4:4">
+    <row r="754" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D754" s="6"/>
     </row>
-    <row r="755" spans="4:4">
+    <row r="755" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D755" s="6"/>
     </row>
-    <row r="756" spans="4:4">
+    <row r="756" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D756" s="6"/>
     </row>
-    <row r="757" spans="4:4">
+    <row r="757" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D757" s="6"/>
     </row>
-    <row r="758" spans="4:4">
+    <row r="758" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D758" s="6"/>
     </row>
-    <row r="759" spans="4:4">
+    <row r="759" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D759" s="6"/>
     </row>
-    <row r="760" spans="4:4">
+    <row r="760" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D760" s="6"/>
     </row>
-    <row r="761" spans="4:4">
+    <row r="761" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D761" s="6"/>
     </row>
-    <row r="762" spans="4:4">
+    <row r="762" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D762" s="6"/>
     </row>
-    <row r="763" spans="4:4">
+    <row r="763" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D763" s="6"/>
     </row>
-    <row r="764" spans="4:4">
+    <row r="764" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D764" s="6"/>
     </row>
-    <row r="765" spans="4:4">
+    <row r="765" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D765" s="6"/>
     </row>
-    <row r="766" spans="4:4">
+    <row r="766" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D766" s="6"/>
     </row>
-    <row r="767" spans="4:4">
+    <row r="767" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D767" s="6"/>
     </row>
-    <row r="768" spans="4:4">
+    <row r="768" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D768" s="6"/>
     </row>
-    <row r="769" spans="4:4">
+    <row r="769" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D769" s="6"/>
     </row>
-    <row r="770" spans="4:4">
+    <row r="770" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D770" s="6"/>
     </row>
-    <row r="771" spans="4:4">
+    <row r="771" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D771" s="6"/>
     </row>
-    <row r="772" spans="4:4">
+    <row r="772" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D772" s="6"/>
     </row>
-    <row r="773" spans="4:4">
+    <row r="773" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D773" s="6"/>
     </row>
-    <row r="774" spans="4:4">
+    <row r="774" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D774" s="6"/>
     </row>
-    <row r="775" spans="4:4">
+    <row r="775" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D775" s="6"/>
     </row>
-    <row r="776" spans="4:4">
+    <row r="776" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D776" s="6"/>
     </row>
-    <row r="777" spans="4:4">
+    <row r="777" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D777" s="6"/>
     </row>
-    <row r="778" spans="4:4">
+    <row r="778" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D778" s="6"/>
     </row>
-    <row r="779" spans="4:4">
+    <row r="779" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D779" s="6"/>
     </row>
-    <row r="780" spans="4:4">
+    <row r="780" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D780" s="6"/>
     </row>
-    <row r="781" spans="4:4">
+    <row r="781" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D781" s="6"/>
     </row>
-    <row r="782" spans="4:4">
+    <row r="782" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D782" s="6"/>
     </row>
-    <row r="783" spans="4:4">
+    <row r="783" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D783" s="6"/>
     </row>
-    <row r="784" spans="4:4">
+    <row r="784" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D784" s="6"/>
     </row>
-    <row r="785" spans="4:4">
+    <row r="785" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D785" s="6"/>
     </row>
-    <row r="786" spans="4:4">
+    <row r="786" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D786" s="6"/>
     </row>
-    <row r="787" spans="4:4">
+    <row r="787" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D787" s="6"/>
     </row>
-    <row r="788" spans="4:4">
+    <row r="788" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D788" s="6"/>
     </row>
-    <row r="789" spans="4:4">
+    <row r="789" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D789" s="6"/>
     </row>
-    <row r="790" spans="4:4">
+    <row r="790" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D790" s="6"/>
     </row>
-    <row r="791" spans="4:4">
+    <row r="791" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D791" s="6"/>
     </row>
-    <row r="792" spans="4:4">
+    <row r="792" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D792" s="6"/>
     </row>
-    <row r="793" spans="4:4">
+    <row r="793" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D793" s="6"/>
     </row>
-    <row r="794" spans="4:4">
+    <row r="794" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D794" s="6"/>
     </row>
-    <row r="795" spans="4:4">
+    <row r="795" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D795" s="6"/>
     </row>
-    <row r="796" spans="4:4">
+    <row r="796" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D796" s="6"/>
     </row>
-    <row r="797" spans="4:4">
+    <row r="797" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D797" s="6"/>
     </row>
-    <row r="798" spans="4:4">
+    <row r="798" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D798" s="6"/>
     </row>
-    <row r="799" spans="4:4">
+    <row r="799" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D799" s="6"/>
     </row>
-    <row r="800" spans="4:4">
+    <row r="800" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D800" s="6"/>
     </row>
-    <row r="801" spans="4:4">
+    <row r="801" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D801" s="6"/>
     </row>
-    <row r="802" spans="4:4">
+    <row r="802" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D802" s="6"/>
     </row>
-    <row r="803" spans="4:4">
+    <row r="803" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D803" s="6"/>
     </row>
-    <row r="804" spans="4:4">
+    <row r="804" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D804" s="6"/>
     </row>
-    <row r="805" spans="4:4">
+    <row r="805" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D805" s="6"/>
     </row>
-    <row r="806" spans="4:4">
+    <row r="806" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D806" s="6"/>
     </row>
-    <row r="807" spans="4:4">
+    <row r="807" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D807" s="6"/>
     </row>
-    <row r="808" spans="4:4">
+    <row r="808" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D808" s="6"/>
     </row>
-    <row r="809" spans="4:4">
+    <row r="809" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D809" s="6"/>
     </row>
-    <row r="810" spans="4:4">
+    <row r="810" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D810" s="6"/>
     </row>
-    <row r="811" spans="4:4">
+    <row r="811" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D811" s="6"/>
     </row>
-    <row r="812" spans="4:4">
+    <row r="812" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D812" s="6"/>
     </row>
-    <row r="813" spans="4:4">
+    <row r="813" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D813" s="6"/>
     </row>
-    <row r="814" spans="4:4">
+    <row r="814" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D814" s="6"/>
     </row>
-    <row r="815" spans="4:4">
+    <row r="815" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D815" s="6"/>
     </row>
-    <row r="816" spans="4:4">
+    <row r="816" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D816" s="6"/>
     </row>
-    <row r="817" spans="4:4">
+    <row r="817" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D817" s="6"/>
     </row>
-    <row r="818" spans="4:4">
+    <row r="818" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D818" s="6"/>
     </row>
-    <row r="819" spans="4:4">
+    <row r="819" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D819" s="6"/>
     </row>
-    <row r="820" spans="4:4">
+    <row r="820" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D820" s="6"/>
     </row>
-    <row r="821" spans="4:4">
+    <row r="821" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D821" s="6"/>
     </row>
-    <row r="822" spans="4:4">
+    <row r="822" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D822" s="6"/>
     </row>
-    <row r="823" spans="4:4">
+    <row r="823" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D823" s="6"/>
     </row>
-    <row r="824" spans="4:4">
+    <row r="824" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D824" s="6"/>
     </row>
-    <row r="825" spans="4:4">
+    <row r="825" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D825" s="6"/>
     </row>
-    <row r="826" spans="4:4">
+    <row r="826" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D826" s="6"/>
     </row>
-    <row r="827" spans="4:4">
+    <row r="827" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D827" s="6"/>
     </row>
-    <row r="828" spans="4:4">
+    <row r="828" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D828" s="6"/>
     </row>
-    <row r="829" spans="4:4">
+    <row r="829" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D829" s="6"/>
     </row>
-    <row r="830" spans="4:4">
+    <row r="830" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D830" s="6"/>
     </row>
-    <row r="831" spans="4:4">
+    <row r="831" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D831" s="6"/>
     </row>
-    <row r="832" spans="4:4">
+    <row r="832" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D832" s="6"/>
     </row>
-    <row r="833" spans="4:4">
+    <row r="833" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D833" s="6"/>
     </row>
-    <row r="834" spans="4:4">
+    <row r="834" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D834" s="6"/>
     </row>
-    <row r="835" spans="4:4">
+    <row r="835" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D835" s="6"/>
     </row>
-    <row r="836" spans="4:4">
+    <row r="836" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D836" s="6"/>
     </row>
-    <row r="837" spans="4:4">
+    <row r="837" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D837" s="6"/>
     </row>
-    <row r="838" spans="4:4">
+    <row r="838" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D838" s="6"/>
     </row>
-    <row r="839" spans="4:4">
+    <row r="839" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D839" s="6"/>
     </row>
-    <row r="840" spans="4:4">
+    <row r="840" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D840" s="6"/>
     </row>
-    <row r="841" spans="4:4">
+    <row r="841" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D841" s="6"/>
     </row>
-    <row r="842" spans="4:4">
+    <row r="842" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D842" s="6"/>
     </row>
-    <row r="843" spans="4:4">
+    <row r="843" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D843" s="6"/>
     </row>
-    <row r="844" spans="4:4">
+    <row r="844" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D844" s="6"/>
     </row>
-    <row r="845" spans="4:4">
+    <row r="845" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D845" s="6"/>
     </row>
-    <row r="846" spans="4:4">
+    <row r="846" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D846" s="6"/>
     </row>
-    <row r="847" spans="4:4">
+    <row r="847" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D847" s="6"/>
     </row>
-    <row r="848" spans="4:4">
+    <row r="848" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D848" s="6"/>
     </row>
-    <row r="849" spans="4:4">
+    <row r="849" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D849" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="B6:B7"/>
@@ -5997,6 +6000,8 @@
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
